--- a/mapping/mml_creator_info_mapping.xlsx
+++ b/mapping/mml_creator_info_mapping.xlsx
@@ -54,9 +54,6 @@
     <t>+</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -392,10 +389,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HL7-0190</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Unstructured address</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -591,6 +584,13 @@
   <si>
     <t>creatorLicense</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Address type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*ValueはHL7-0190</t>
   </si>
 </sst>
 </file>
@@ -1012,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C44" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1030,21 +1030,21 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -1065,16 +1065,16 @@
         <v>4</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -1082,10 +1082,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -1093,7 +1093,7 @@
         <v>9.1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1112,23 +1112,23 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="I6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1136,13 +1136,13 @@
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -1150,13 +1150,13 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -1164,13 +1164,13 @@
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -1196,14 +1196,14 @@
       </c>
       <c r="F12" s="1"/>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
@@ -1212,33 +1212,33 @@
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
@@ -1247,16 +1247,16 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="I15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -1265,36 +1265,36 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="1"/>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
@@ -1303,71 +1303,69 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="I18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="1"/>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="1"/>
       <c r="I20" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
@@ -1378,17 +1376,17 @@
       </c>
       <c r="F22" s="1"/>
       <c r="I22" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>6</v>
@@ -1397,26 +1395,26 @@
         <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="1"/>
       <c r="I24" s="9"/>
@@ -1431,20 +1429,20 @@
         <v>6</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" s="1"/>
       <c r="I25" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>6</v>
@@ -1453,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>6</v>
@@ -1478,60 +1476,60 @@
     <row r="28" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="C28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" s="1"/>
       <c r="I28" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="I29" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="H30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
@@ -1542,17 +1540,17 @@
       </c>
       <c r="F31" s="1"/>
       <c r="I31" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>6</v>
@@ -1561,31 +1559,31 @@
         <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33" s="1"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>5</v>
@@ -1595,20 +1593,20 @@
         <v>6</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" s="1"/>
       <c r="I34" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>6</v>
@@ -1617,19 +1615,19 @@
         <v>8</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>6</v>
@@ -1639,65 +1637,65 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="C37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F37" s="1"/>
       <c r="I37" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J37" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="C38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="I38" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F39" s="1"/>
       <c r="H39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1706,11 +1704,11 @@
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>6</v>
@@ -1719,207 +1717,211 @@
         <v>8</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="I42" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I43" s="10"/>
+      <c r="K43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" s="3"/>
       <c r="I44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J44" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" s="3"/>
       <c r="I45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F46" s="3"/>
       <c r="I46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F47" s="3"/>
       <c r="I47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J47" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F48" s="3"/>
       <c r="I48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J48" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49" s="3"/>
       <c r="I49" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J49" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50" s="3"/>
       <c r="I50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J50" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F51" s="1"/>
       <c r="H51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
@@ -1930,28 +1932,28 @@
       </c>
       <c r="F52" s="1"/>
       <c r="I52" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1960,169 +1962,169 @@
       </c>
       <c r="F54" s="1"/>
       <c r="H54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="I55" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J55" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F56" s="1"/>
       <c r="I56" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J56" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F57" s="1"/>
       <c r="I57" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J57" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F58" s="1"/>
       <c r="I58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J58" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F59" s="1"/>
       <c r="I59" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J59" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F60" s="1"/>
       <c r="I60" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F61" s="1"/>
       <c r="I61" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J61" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F62" s="1"/>
       <c r="I62" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J62" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
@@ -2130,24 +2132,24 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F63" s="1"/>
       <c r="H63" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J63" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/mapping/mml_creator_info_mapping.xlsx
+++ b/mapping/mml_creator_info_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="197">
   <si>
     <t>Elements</t>
   </si>
@@ -261,27 +261,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0.23]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0002]/items[at0005]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0002]/items[at0003]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0002]/items[at0004 and name/value='Middle name']</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0001]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0002]/items[at0017]</t>
-  </si>
-  <si>
-    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1]/items[at0002]/items[at0.27]</t>
-  </si>
-  <si>
     <t>mmlFc:Facility</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -413,9 +392,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.21]</t>
-  </si>
-  <si>
     <t>zip code</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -424,10 +400,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>openEHR-EHR-CLUSTER.telecom_details-japan.v1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Telecom type</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -444,10 +416,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>structured_telecoms/extention</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Unstructured telecoms</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -472,97 +440,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>professional identifier</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/items[at0003]/items[at0011]</t>
-  </si>
-  <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0001]</t>
-  </si>
-  <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.15]</t>
-  </si>
-  <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0011]</t>
-  </si>
-  <si>
     <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.12]</t>
   </si>
   <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.13]</t>
-  </si>
-  <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.14]</t>
-  </si>
-  <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0001]</t>
-  </si>
-  <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.15]</t>
-  </si>
-  <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0011]</t>
-  </si>
-  <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]</t>
-  </si>
-  <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.13]</t>
-  </si>
-  <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.14]</t>
-  </si>
-  <si>
     <t>/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0002]</t>
   </si>
   <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.18]</t>
-  </si>
-  <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.19]</t>
-  </si>
-  <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.20]</t>
-  </si>
-  <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0005.1]</t>
-  </si>
-  <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0004.1]</t>
-  </si>
-  <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.16]</t>
-  </si>
-  <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0009 and name/value='Email address']</t>
-  </si>
-  <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0004]</t>
-  </si>
-  <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0002]</t>
-  </si>
-  <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]</t>
-  </si>
-  <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]</t>
-  </si>
-  <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]</t>
-  </si>
-  <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]</t>
-  </si>
-  <si>
     <t>/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0019]</t>
   </si>
   <si>
-    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0.20]</t>
-  </si>
-  <si>
     <t>mmlCi:creatorlicense</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -575,9 +461,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/items[at0003]/items[at0.2 and name/value='License']</t>
-  </si>
-  <si>
     <t>openEHR-EHR-CLUSTER.professional_individual_mml</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -590,7 +473,280 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>*ValueはHL7-0190</t>
+    <t>data type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_IDENTIFIER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[at0011.2 and name/value='Professional Identifier']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Professional identifier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.12]/vaule</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*)値は"="で固定</t>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Professional identifier type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Professional Identifier check digit</t>
+  </si>
+  <si>
+    <t>DV_QUANTITY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[at0.23]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Professional Identifier check digit schema</t>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[at0.24]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_CODED_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0.23]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0.23]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0005]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0003]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0004 and name/value='Middle name']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0017]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[openEHR-EHR-CLUSTER.person_name-mml.v1 and name/value='Person name for MML expression']/items[at0002]/items[at0.27]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_CODED_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.15]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.15]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0011.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_IDENTIFIER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.13]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Facility']/items[at0.14]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0001]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.15]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.15]/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_IDENTIFIER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0011.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.12]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_QUANTITY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.13]/magnitude</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.organisation-mml.v1 and name/value='Department']/items[at0.14]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0006.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.29]/defining_code/code_string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0006.1]/mappings/target/defining_code/terminology_id/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0006.1]/mappings/match</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.18]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.19]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0.20]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0003]/items[at0005.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0.16]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.address-japan.v1 and name/value='Address expression of Japan']/items[at0001 and name/value='Address']/items[at0004.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0009 and name/value='Email address']/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>openEHR-EHR-CLUSTER.telecom_details-mml.v1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DV_TEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0004]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0006]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0.21]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0007]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>structured_telecoms/Extention</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0002.1]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0001 and name/value='Telecoms']/items[at0003]/items[at0005]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[openEHR-EHR-CLUSTER.telecom_details-mml.v1 and name/value='Telecom details for MML']/items[at0.20]/value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/items[at0003]/items[at0.2 and name/value='License']/value</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1010,44 +1166,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="D49" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="8" max="8" width="11.625" customWidth="1"/>
     <col min="9" max="9" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="18.875" customWidth="1"/>
+    <col min="11" max="11" width="11.75" customWidth="1"/>
+    <col min="12" max="12" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1071,24 +1228,27 @@
         <v>61</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>9.1</v>
       </c>
@@ -1100,7 +1260,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1112,13 +1272,16 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="I6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" t="s">
         <v>130</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -1131,8 +1294,17 @@
         <v>29</v>
       </c>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
@@ -1145,118 +1317,141 @@
         <v>29</v>
       </c>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="K8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="I9" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="K9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I10" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="I11" t="s">
+        <v>142</v>
+      </c>
+      <c r="J11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="H12" t="s">
+      <c r="F13" s="1"/>
+      <c r="H13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="I15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
@@ -1264,75 +1459,85 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="I16" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="I18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="I19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+      <c r="K19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
@@ -1342,128 +1547,146 @@
         <v>12</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="I20" s="6" t="s">
-        <v>72</v>
+      <c r="I20" t="s">
+        <v>71</v>
       </c>
       <c r="J20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+      <c r="K20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F21" s="1"/>
-      <c r="H21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="H22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="I22" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F23" s="1"/>
+      <c r="I23" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
+      <c r="F25" s="1"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="I25" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="C26" s="1" t="s">
+      <c r="F26" s="1"/>
+      <c r="I26" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J26" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>6</v>
@@ -1471,382 +1694,408 @@
       <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+      <c r="F27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="C28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="K28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="K29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="I30" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="J30" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="I28" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="C29" s="1" t="s">
+      <c r="J31" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="H30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="I31" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="J31" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J32" t="s">
-        <v>139</v>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="H32" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="B33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="I33" s="9"/>
+      <c r="I33" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K33" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="D34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="I34" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="J34" t="s">
-        <v>140</v>
+        <v>8</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K34" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J35" t="s">
-        <v>141</v>
+        <v>13</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="I36" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="I37" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J38" t="s">
-        <v>143</v>
+        <v>8</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="K38" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="H39" t="s">
-        <v>107</v>
+      <c r="I39" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="K39" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E40" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="I40" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="C41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>166</v>
+      <c r="B42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="H42" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="I43" s="10"/>
-      <c r="K43" t="s">
-        <v>167</v>
-      </c>
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
-      <c r="B44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D44" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="I44" t="s">
-        <v>109</v>
-      </c>
-      <c r="J44" t="s">
-        <v>144</v>
+        <v>8</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K44" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
-      <c r="B45" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D45" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="I45" t="s">
-        <v>111</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>145</v>
+        <v>13</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K45" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
-      <c r="B46" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D46" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="I46" t="s">
-        <v>112</v>
-      </c>
-      <c r="J46" t="s">
-        <v>146</v>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
-      <c r="B47" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="I47" t="s">
-        <v>113</v>
-      </c>
-      <c r="J47" t="s">
-        <v>147</v>
+      <c r="I47" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J47" s="10"/>
+      <c r="K47" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
@@ -1857,16 +2106,19 @@
       </c>
       <c r="F48" s="3"/>
       <c r="I48" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="J48" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+      <c r="K48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
@@ -1877,16 +2129,19 @@
       </c>
       <c r="F49" s="3"/>
       <c r="I49" t="s">
-        <v>116</v>
-      </c>
-      <c r="J49" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
@@ -1897,180 +2152,201 @@
       </c>
       <c r="F50" s="3"/>
       <c r="I50" t="s">
-        <v>110</v>
-      </c>
-      <c r="J50" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="I51" t="s">
+        <v>106</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K51" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52" s="1"/>
+      <c r="B52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="I52" t="s">
+        <v>107</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K52" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53" s="1"/>
+      <c r="B53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="I53" t="s">
+        <v>108</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K53" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" s="1"/>
+      <c r="B54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="I54" t="s">
+        <v>103</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K54" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1" t="s">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="H51" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="I52" t="s">
-        <v>117</v>
-      </c>
-      <c r="J52" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="H54" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="27" x14ac:dyDescent="0.15">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J55" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F55" s="1"/>
+      <c r="H55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F56" s="1"/>
       <c r="I56" t="s">
-        <v>120</v>
-      </c>
-      <c r="J56" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K56" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="1"/>
-      <c r="I57" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J57" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F58" s="1"/>
-      <c r="I58" t="s">
-        <v>122</v>
-      </c>
-      <c r="J58" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="H58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D59" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="1"/>
-      <c r="I59" t="s">
-        <v>123</v>
-      </c>
-      <c r="J59" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K59" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
@@ -2081,16 +2357,19 @@
       </c>
       <c r="F60" s="1"/>
       <c r="I60" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="J60" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+      <c r="K60" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
@@ -2100,17 +2379,20 @@
         <v>12</v>
       </c>
       <c r="F61" s="1"/>
-      <c r="I61" t="s">
-        <v>125</v>
-      </c>
-      <c r="J61" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I61" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K61" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
@@ -2120,36 +2402,134 @@
         <v>12</v>
       </c>
       <c r="F62" s="1"/>
-      <c r="I62" s="6" t="s">
-        <v>126</v>
+      <c r="I62" t="s">
+        <v>113</v>
       </c>
       <c r="J62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A63" s="1">
-        <v>9.1999999999999993</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="K62" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="F63" s="1"/>
-      <c r="H63" t="s">
-        <v>164</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>165</v>
+      <c r="I63" t="s">
+        <v>192</v>
       </c>
       <c r="J63" t="s">
-        <v>163</v>
+        <v>143</v>
+      </c>
+      <c r="K63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="I64" t="s">
+        <v>114</v>
+      </c>
+      <c r="J64" t="s">
+        <v>143</v>
+      </c>
+      <c r="K64" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="I65" t="s">
+        <v>115</v>
+      </c>
+      <c r="J65" t="s">
+        <v>143</v>
+      </c>
+      <c r="K65" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="I66" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K66" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="H67" t="s">
+        <v>126</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K67" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
